--- a/biology/Microbiologie/Colwellia_maris/Colwellia_maris.xlsx
+++ b/biology/Microbiologie/Colwellia_maris/Colwellia_maris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colwellia maris est une des espèces du genre de bactéries marines Colwellia. Ce sont des bacilles à Gram négatif de la famille des Colwelliaceae faisant partie de l'embranchement des Pseudomonadota.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type de l'espèce C. maris, nommée ABE-1, a été isolée en mer à proximité de la côte Abashiri au Japon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type de l'espèce C. maris, nommée ABE-1, a été isolée en mer à proximité de la côte Abashiri au Japon.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de cette espèce Colwellia maris est la suivante : ma’ris L. neut. n. mare (gen. maris), la mer; L. gen. neut. n. maris, isolé en mer[1],[2].
-Phylogénie
-Les analyses phylogéniques avec la séquence nucléotidique de l'ARNr 16S de la souche ABE-1 ont permis de classer cette bactérie parmi les Colwellia avec une homologie de 92,9 % avec celle de l'espèce C. psychrerythraea. Ce genre bactérien est phylogénétiquement inclus dans la classe des Pseudomonadota (ex Proteobacteria)[3].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette espèce Colwellia maris est la suivante : ma’ris L. neut. n. mare (gen. maris), la mer; L. gen. neut. n. maris, isolé en mer,.
 </t>
         </is>
       </c>
@@ -573,13 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colwellia maris est une bactérie anaérobie facultative à Gram négatif. Cette espèce est formée des bacilles incurvés positifs pour les tests catalase et oxydase[4].
-La souche type de l'espèce C. maris est la souche ABE-1 qui porte les identifiants CIP 106458, DSM 16033, JCM 10085 dans différentes banques de cultures bactériennes.
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses phylogéniques avec la séquence nucléotidique de l'ARNr 16S de la souche ABE-1 ont permis de classer cette bactérie parmi les Colwellia avec une homologie de 92,9 % avec celle de l'espèce C. psychrerythraea. Ce genre bactérien est phylogénétiquement inclus dans la classe des Pseudomonadota (ex Proteobacteria).
 </t>
         </is>
       </c>
@@ -605,10 +627,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colwellia maris est une bactérie anaérobie facultative à Gram négatif. Cette espèce est formée des bacilles incurvés positifs pour les tests catalase et oxydase.
+La souche type de l'espèce C. maris est la souche ABE-1 qui porte les identifiants CIP 106458, DSM 16033, JCM 10085 dans différentes banques de cultures bactériennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colwellia_maris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colwellia_maris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La souche type de cette espèce a été isolé en mer au large de la côte Abashiri au Japon.
 </t>
